--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,20 +1,245 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dencyh/Documents/GitHub/dropoff_statistics/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054E3AE6-F551-EB4F-BC66-EF4613390373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$G$39</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+  <si>
+    <t>Склад</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Количество курьеров</t>
+  </si>
+  <si>
+    <t>Количество точек</t>
+  </si>
+  <si>
+    <t>Количество заказов</t>
+  </si>
+  <si>
+    <t>Количество лотов</t>
+  </si>
+  <si>
+    <t>Пробег среднее</t>
+  </si>
+  <si>
+    <t>Магнитка</t>
+  </si>
+  <si>
+    <t>2021-11-08</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>Ростов</t>
+  </si>
+  <si>
+    <t>2021-11-07</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>Екатеринбург</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>Дзержинский</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>103.2</t>
+  </si>
+  <si>
+    <t>Софьино</t>
+  </si>
+  <si>
+    <t>134.7</t>
+  </si>
+  <si>
+    <t>2021-11-11</t>
+  </si>
+  <si>
+    <t>139.9</t>
+  </si>
+  <si>
+    <t>2021-11-12</t>
+  </si>
+  <si>
+    <t>68.5</t>
+  </si>
+  <si>
+    <t>148.7</t>
+  </si>
+  <si>
+    <t>2021-11-13</t>
+  </si>
+  <si>
+    <t>160.1</t>
+  </si>
+  <si>
+    <t>69.8</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>86.5</t>
+  </si>
+  <si>
+    <t>171.3</t>
+  </si>
+  <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
+    <t>152.0</t>
+  </si>
+  <si>
+    <t>2021-11-17</t>
+  </si>
+  <si>
+    <t>154.9</t>
+  </si>
+  <si>
+    <t>2021-11-19</t>
+  </si>
+  <si>
+    <t>184.4</t>
+  </si>
+  <si>
+    <t>2021-11-20</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>2021-11-21</t>
+  </si>
+  <si>
+    <t>157.4</t>
+  </si>
+  <si>
+    <t>2021-11-22</t>
+  </si>
+  <si>
+    <t>164.3</t>
+  </si>
+  <si>
+    <t>2021-11-23</t>
+  </si>
+  <si>
+    <t>161.8</t>
+  </si>
+  <si>
+    <t>2021-11-24</t>
+  </si>
+  <si>
+    <t>151.3</t>
+  </si>
+  <si>
+    <t>2021-11-09</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>2021-11-02</t>
+  </si>
+  <si>
+    <t>108.8</t>
+  </si>
+  <si>
+    <t>2021-11-06</t>
+  </si>
+  <si>
+    <t>48.8</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>2021-11-25</t>
+  </si>
+  <si>
+    <t>136.9</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>47.8</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>122.8</t>
+  </si>
+  <si>
+    <t>169.8</t>
+  </si>
+  <si>
+    <t>124.6</t>
+  </si>
+  <si>
+    <t>45.6</t>
+  </si>
+  <si>
+    <t>2021-11-05</t>
+  </si>
+  <si>
+    <t>113.0</t>
+  </si>
+  <si>
+    <t>2021-11-18</t>
+  </si>
+  <si>
+    <t>156.9</t>
+  </si>
+  <si>
+    <t>49.7</t>
+  </si>
+  <si>
+    <t>155.2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,14 +268,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -375,93 +614,930 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.00390625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.00390625" customWidth="1"/>
-    <col min="7" max="7" width="15.00390625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Склад</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Дата</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Количество курьеров</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Количество точек</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Количество заказов</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Количество лотов</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Пробег среднее</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Софьино</v>
-      </c>
-      <c r="B2" t="str">
-        <v>2021-11-23</v>
-      </c>
-      <c r="C2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44507</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>110</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1160</v>
+      </c>
+      <c r="F2" s="1">
+        <v>110</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44508</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2295</v>
+      </c>
+      <c r="F3" s="1">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44509</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2501</v>
+      </c>
+      <c r="F4" s="1">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44510</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1206</v>
+      </c>
+      <c r="F5" s="1">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44511</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1387</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44512</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1534</v>
+      </c>
+      <c r="F7" s="1">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44513</v>
+      </c>
+      <c r="C8" s="1">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D8" s="1">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1145</v>
+      </c>
+      <c r="F8" s="1">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44514</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>106</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1946</v>
+      </c>
+      <c r="F9" s="1">
+        <v>111</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44515</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1">
+        <v>643</v>
+      </c>
+      <c r="F10" s="1">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1014</v>
+      </c>
+      <c r="F11" s="1">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1115</v>
+      </c>
+      <c r="F12" s="1">
+        <v>49</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1">
+        <v>813</v>
+      </c>
+      <c r="F13" s="1">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1024</v>
+      </c>
+      <c r="F14" s="1">
+        <v>61</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>86</v>
+      </c>
+      <c r="E15" s="1">
+        <v>919</v>
+      </c>
+      <c r="F15" s="1">
+        <v>89</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1">
+        <v>585</v>
+      </c>
+      <c r="F16" s="1">
+        <v>80</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1">
+        <v>566</v>
+      </c>
+      <c r="F17" s="1">
+        <v>60</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
         <v>77</v>
       </c>
-      <c r="E2">
+      <c r="E18" s="1">
         <v>695</v>
       </c>
-      <c r="F2">
+      <c r="F18" s="1">
         <v>77</v>
       </c>
-      <c r="G2" t="str">
-        <v>77.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Софьино</v>
-      </c>
-      <c r="B3" t="str">
-        <v>2021-11-24</v>
-      </c>
-      <c r="C3">
+      <c r="G18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D19" s="1">
         <v>33</v>
       </c>
-      <c r="E3">
+      <c r="E19" s="1">
         <v>490</v>
       </c>
-      <c r="F3">
+      <c r="F19" s="1">
         <v>33</v>
       </c>
-      <c r="G3" t="str">
-        <v>81.7</v>
+      <c r="G19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1">
+        <v>78</v>
+      </c>
+      <c r="E20" s="1">
+        <v>829</v>
+      </c>
+      <c r="F20" s="1">
+        <v>78</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1">
+        <v>762</v>
+      </c>
+      <c r="F22" s="1">
+        <v>49</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>107</v>
+      </c>
+      <c r="F24" s="1">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1">
+        <v>304</v>
+      </c>
+      <c r="F25" s="1">
+        <v>34</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>23</v>
+      </c>
+      <c r="E26" s="1">
+        <v>963</v>
+      </c>
+      <c r="F26" s="1">
+        <v>41</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>33</v>
+      </c>
+      <c r="E28" s="1">
+        <v>221</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>33</v>
+      </c>
+      <c r="E29" s="1">
+        <v>221</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1">
+        <v>193</v>
+      </c>
+      <c r="F30" s="1">
+        <v>53</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>39</v>
+      </c>
+      <c r="E31" s="1">
+        <v>347</v>
+      </c>
+      <c r="F31" s="1">
+        <v>56</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43</v>
+      </c>
+      <c r="E32" s="1">
+        <v>219</v>
+      </c>
+      <c r="F32" s="1">
+        <v>60</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1">
+        <v>67</v>
+      </c>
+      <c r="F33" s="1">
+        <v>20</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1">
+        <v>699</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44507</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>264</v>
+      </c>
+      <c r="F35" s="1">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44508</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1">
+        <v>355</v>
+      </c>
+      <c r="F36" s="1">
+        <v>25</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>65</v>
+      </c>
+      <c r="E37" s="1">
+        <v>498</v>
+      </c>
+      <c r="F37" s="1">
+        <v>76</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1">
+        <v>82</v>
+      </c>
+      <c r="E38" s="1">
+        <v>899</v>
+      </c>
+      <c r="F38" s="1">
+        <v>96</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1">
+        <v>52</v>
+      </c>
+      <c r="E39" s="1">
+        <v>154</v>
+      </c>
+      <c r="F39" s="1">
+        <v>52</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G39" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G39">
+      <sortCondition descending="1" ref="A1:A39"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError sqref="A1:G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>